--- a/questions.xlsx
+++ b/questions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
   <si>
     <t>QID</t>
   </si>
@@ -212,25 +212,6 @@
   </si>
   <si>
     <t>SAP Cloud Platform Portal</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Floating in the digital seas, I track the green...Guiding the way for adoption unseen...Tech stack transparency, my mission's embrace...What am I in SAP's semester race?</t>
-  </si>
-  <si>
-    <t>BTP Dashboard</t>
-  </si>
-  <si>
-    <t>Trust Center</t>
-  </si>
-  <si>
-    <t>Ocean of Green</t>
-  </si>
-  <si>
-    <t>SAP Tech Stack Monitor</t>
   </si>
   <si>
     <t>10</t>
@@ -383,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -824,7 +805,7 @@
         <v>67</v>
       </c>
       <c r="H10" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>20</v>
@@ -833,7 +814,7 @@
         <v>68</v>
       </c>
       <c r="K10" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s" s="0">
         <v>22</v>
@@ -912,7 +893,7 @@
         <v>79</v>
       </c>
       <c r="H12" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s" s="0">
         <v>20</v>
@@ -921,7 +902,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s" s="0">
         <v>22</v>
@@ -1000,7 +981,7 @@
         <v>91</v>
       </c>
       <c r="H14" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s" s="0">
         <v>20</v>
@@ -1009,7 +990,7 @@
         <v>92</v>
       </c>
       <c r="K14" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s" s="0">
         <v>22</v>
@@ -1062,50 +1043,6 @@
         <v>99</v>
       </c>
       <c r="N15" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="E16" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="H16" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="K16" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="M16" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="N16" t="b" s="0">
         <v>0</v>
       </c>
     </row>
